--- a/pivot/google.xlsx
+++ b/pivot/google.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eske0083\Documents\Git\SCCResults\pivot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eske\Documents\git\SCCResults\pivot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1215030-B4BF-4C52-9EC5-7B23717BD4D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxDeg" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Median" sheetId="1" r:id="rId7"/>
     <sheet name="Average" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,9 +113,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -126,7 +127,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -498,7 +498,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E01D-4C5C-82BB-DFB342DB62BD}"/>
             </c:ext>
@@ -840,7 +840,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E01D-4C5C-82BB-DFB342DB62BD}"/>
             </c:ext>
@@ -1182,7 +1182,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E01D-4C5C-82BB-DFB342DB62BD}"/>
             </c:ext>
@@ -1524,7 +1524,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E01D-4C5C-82BB-DFB342DB62BD}"/>
             </c:ext>
@@ -1866,7 +1866,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E01D-4C5C-82BB-DFB342DB62BD}"/>
             </c:ext>
@@ -2208,7 +2208,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E01D-4C5C-82BB-DFB342DB62BD}"/>
             </c:ext>
@@ -2552,7 +2552,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1F71-4FFA-8D12-A57113286656}"/>
             </c:ext>
@@ -2687,7 +2687,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2755,9 +2754,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2769,7 +2768,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2838,310 +2836,310 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>150532</c:v>
+                  <c:v>434818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155420</c:v>
+                  <c:v>435786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158519</c:v>
+                  <c:v>436245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160614</c:v>
+                  <c:v>436558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162625</c:v>
+                  <c:v>436769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164391</c:v>
+                  <c:v>436974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>165590</c:v>
+                  <c:v>437171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>166785</c:v>
+                  <c:v>437348</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>167815</c:v>
+                  <c:v>437510</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>168690</c:v>
+                  <c:v>437662</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>169510</c:v>
+                  <c:v>437811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>170264</c:v>
+                  <c:v>437957</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>170968</c:v>
+                  <c:v>438095</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>171670</c:v>
+                  <c:v>438220</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>172298</c:v>
+                  <c:v>438342</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172905</c:v>
+                  <c:v>438454</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>173504</c:v>
+                  <c:v>438556</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>174103</c:v>
+                  <c:v>438658</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>174702</c:v>
+                  <c:v>438759</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>175283</c:v>
+                  <c:v>438856</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175850</c:v>
+                  <c:v>438952</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>176404</c:v>
+                  <c:v>439045</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>176943</c:v>
+                  <c:v>439135</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>177456</c:v>
+                  <c:v>439220</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>177961</c:v>
+                  <c:v>439301</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>178436</c:v>
+                  <c:v>439379</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>178907</c:v>
+                  <c:v>439457</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>179373</c:v>
+                  <c:v>439534</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>179828</c:v>
+                  <c:v>439611</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>180278</c:v>
+                  <c:v>439688</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>180726</c:v>
+                  <c:v>439763</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>181171</c:v>
+                  <c:v>439836</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>181603</c:v>
+                  <c:v>439908</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>182023</c:v>
+                  <c:v>439980</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>182432</c:v>
+                  <c:v>440052</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>182832</c:v>
+                  <c:v>440123</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>183220</c:v>
+                  <c:v>440194</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>183605</c:v>
+                  <c:v>440264</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>183990</c:v>
+                  <c:v>440333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>184372</c:v>
+                  <c:v>440402</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>184748</c:v>
+                  <c:v>440470</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>185121</c:v>
+                  <c:v>440538</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>185490</c:v>
+                  <c:v>440606</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>185850</c:v>
+                  <c:v>440673</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>186206</c:v>
+                  <c:v>440740</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>186538</c:v>
+                  <c:v>440806</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>186831</c:v>
+                  <c:v>440871</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>187123</c:v>
+                  <c:v>440936</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>187413</c:v>
+                  <c:v>441000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>187691</c:v>
+                  <c:v>441064</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>187960</c:v>
+                  <c:v>441127</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>188228</c:v>
+                  <c:v>441190</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>188492</c:v>
+                  <c:v>441249</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>188756</c:v>
+                  <c:v>441308</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189018</c:v>
+                  <c:v>441367</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>189278</c:v>
+                  <c:v>441426</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>189537</c:v>
+                  <c:v>441485</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>189794</c:v>
+                  <c:v>441543</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>190049</c:v>
+                  <c:v>441601</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>190302</c:v>
+                  <c:v>441657</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>190553</c:v>
+                  <c:v>441713</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>190803</c:v>
+                  <c:v>441769</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>191051</c:v>
+                  <c:v>441824</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>191292</c:v>
+                  <c:v>441879</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>191533</c:v>
+                  <c:v>441934</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>191765</c:v>
+                  <c:v>441989</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>191997</c:v>
+                  <c:v>442044</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>192227</c:v>
+                  <c:v>442099</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>192457</c:v>
+                  <c:v>442153</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>192683</c:v>
+                  <c:v>442207</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>192908</c:v>
+                  <c:v>442261</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>193132</c:v>
+                  <c:v>442314</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>193355</c:v>
+                  <c:v>442367</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>193571</c:v>
+                  <c:v>442420</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>193786</c:v>
+                  <c:v>442473</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>193992</c:v>
+                  <c:v>442525</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>194198</c:v>
+                  <c:v>442577</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>194403</c:v>
+                  <c:v>442628</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>194608</c:v>
+                  <c:v>442679</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>194812</c:v>
+                  <c:v>442730</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>195015</c:v>
+                  <c:v>442781</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>195216</c:v>
+                  <c:v>442832</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>195413</c:v>
+                  <c:v>442881</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>195610</c:v>
+                  <c:v>442930</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>195805</c:v>
+                  <c:v>442979</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>195994</c:v>
+                  <c:v>443027</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>196182</c:v>
+                  <c:v>443075</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>196367</c:v>
+                  <c:v>443123</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>196549</c:v>
+                  <c:v>443171</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>196731</c:v>
+                  <c:v>443218</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>196912</c:v>
+                  <c:v>443265</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>197090</c:v>
+                  <c:v>443312</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>197266</c:v>
+                  <c:v>443358</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>197441</c:v>
+                  <c:v>443403</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>197615</c:v>
+                  <c:v>443448</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>197787</c:v>
+                  <c:v>443493</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>197959</c:v>
+                  <c:v>443538</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>198123</c:v>
+                  <c:v>443583</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198284</c:v>
+                  <c:v>443628</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>198445</c:v>
+                  <c:v>443673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC95-4A40-A471-1BA97E74A475}"/>
             </c:ext>
@@ -3483,7 +3481,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC95-4A40-A471-1BA97E74A475}"/>
             </c:ext>
@@ -3825,7 +3823,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FC95-4A40-A471-1BA97E74A475}"/>
             </c:ext>
@@ -4167,7 +4165,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FC95-4A40-A471-1BA97E74A475}"/>
             </c:ext>
@@ -4509,7 +4507,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FC95-4A40-A471-1BA97E74A475}"/>
             </c:ext>
@@ -4851,7 +4849,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-FC95-4A40-A471-1BA97E74A475}"/>
             </c:ext>
@@ -5195,7 +5193,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FC95-4A40-A471-1BA97E74A475}"/>
             </c:ext>
@@ -5332,7 +5330,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6531,7 +6528,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{960711C1-945F-46CD-90AA-E5802770E509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960711C1-945F-46CD-90AA-E5802770E509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6572,7 +6569,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47198A08-5623-469D-B633-ECDD5E73F5AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47198A08-5623-469D-B633-ECDD5E73F5AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6891,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22109,7 +22106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37325,7 +37322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -52541,7 +52538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -67757,7 +67754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -82973,7 +82970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -98191,7 +98188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -103954,11 +103951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -104009,7 +104006,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>150532</v>
+        <v>434818</v>
       </c>
       <c r="B2">
         <f>AVERAGE(MaxDeg!A1:AX1)</f>
@@ -104037,7 +104034,7 @@
       </c>
       <c r="I2">
         <f>SUM(A$2:A2)</f>
-        <v>150532</v>
+        <v>434818</v>
       </c>
       <c r="J2">
         <f>SUM(B$2:B2)</f>
@@ -104066,7 +104063,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4888</v>
+        <v>968</v>
       </c>
       <c r="B3">
         <f>AVERAGE(MaxDeg!A2:AX2)</f>
@@ -104094,7 +104091,7 @@
       </c>
       <c r="I3">
         <f>SUM(A$2:A3)</f>
-        <v>155420</v>
+        <v>435786</v>
       </c>
       <c r="J3">
         <f>SUM(B$2:B3)</f>
@@ -104123,7 +104120,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3099</v>
+        <v>459</v>
       </c>
       <c r="B4">
         <f>AVERAGE(MaxDeg!A3:AX3)</f>
@@ -104151,7 +104148,7 @@
       </c>
       <c r="I4">
         <f>SUM(A$2:A4)</f>
-        <v>158519</v>
+        <v>436245</v>
       </c>
       <c r="J4">
         <f>SUM(B$2:B4)</f>
@@ -104180,7 +104177,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2095</v>
+        <v>313</v>
       </c>
       <c r="B5">
         <f>AVERAGE(MaxDeg!A4:AX4)</f>
@@ -104208,7 +104205,7 @@
       </c>
       <c r="I5">
         <f>SUM(A$2:A5)</f>
-        <v>160614</v>
+        <v>436558</v>
       </c>
       <c r="J5">
         <f>SUM(B$2:B5)</f>
@@ -104237,7 +104234,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2011</v>
+        <v>211</v>
       </c>
       <c r="B6">
         <f>AVERAGE(MaxDeg!A5:AX5)</f>
@@ -104265,7 +104262,7 @@
       </c>
       <c r="I6">
         <f>SUM(A$2:A6)</f>
-        <v>162625</v>
+        <v>436769</v>
       </c>
       <c r="J6">
         <f>SUM(B$2:B6)</f>
@@ -104294,7 +104291,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1766</v>
+        <v>205</v>
       </c>
       <c r="B7">
         <f>AVERAGE(MaxDeg!A6:AX6)</f>
@@ -104322,7 +104319,7 @@
       </c>
       <c r="I7">
         <f>SUM(A$2:A7)</f>
-        <v>164391</v>
+        <v>436974</v>
       </c>
       <c r="J7">
         <f>SUM(B$2:B7)</f>
@@ -104351,7 +104348,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1199</v>
+        <v>197</v>
       </c>
       <c r="B8">
         <f>AVERAGE(MaxDeg!A7:AX7)</f>
@@ -104379,7 +104376,7 @@
       </c>
       <c r="I8">
         <f>SUM(A$2:A8)</f>
-        <v>165590</v>
+        <v>437171</v>
       </c>
       <c r="J8">
         <f>SUM(B$2:B8)</f>
@@ -104408,7 +104405,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1195</v>
+        <v>177</v>
       </c>
       <c r="B9">
         <f>AVERAGE(MaxDeg!A8:AX8)</f>
@@ -104436,7 +104433,7 @@
       </c>
       <c r="I9">
         <f>SUM(A$2:A9)</f>
-        <v>166785</v>
+        <v>437348</v>
       </c>
       <c r="J9">
         <f>SUM(B$2:B9)</f>
@@ -104465,7 +104462,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1030</v>
+        <v>162</v>
       </c>
       <c r="B10">
         <f>AVERAGE(MaxDeg!A9:AX9)</f>
@@ -104493,7 +104490,7 @@
       </c>
       <c r="I10">
         <f>SUM(A$2:A10)</f>
-        <v>167815</v>
+        <v>437510</v>
       </c>
       <c r="J10">
         <f>SUM(B$2:B10)</f>
@@ -104522,7 +104519,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>875</v>
+        <v>152</v>
       </c>
       <c r="B11">
         <f>AVERAGE(MaxDeg!A10:AX10)</f>
@@ -104550,7 +104547,7 @@
       </c>
       <c r="I11">
         <f>SUM(A$2:A11)</f>
-        <v>168690</v>
+        <v>437662</v>
       </c>
       <c r="J11">
         <f>SUM(B$2:B11)</f>
@@ -104579,7 +104576,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>820</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <f>AVERAGE(MaxDeg!A11:AX11)</f>
@@ -104607,7 +104604,7 @@
       </c>
       <c r="I12">
         <f>SUM(A$2:A12)</f>
-        <v>169510</v>
+        <v>437811</v>
       </c>
       <c r="J12">
         <f>SUM(B$2:B12)</f>
@@ -104636,7 +104633,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>754</v>
+        <v>146</v>
       </c>
       <c r="B13">
         <f>AVERAGE(MaxDeg!A12:AX12)</f>
@@ -104664,7 +104661,7 @@
       </c>
       <c r="I13">
         <f>SUM(A$2:A13)</f>
-        <v>170264</v>
+        <v>437957</v>
       </c>
       <c r="J13">
         <f>SUM(B$2:B13)</f>
@@ -104693,7 +104690,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>704</v>
+        <v>138</v>
       </c>
       <c r="B14">
         <f>AVERAGE(MaxDeg!A13:AX13)</f>
@@ -104721,7 +104718,7 @@
       </c>
       <c r="I14">
         <f>SUM(A$2:A14)</f>
-        <v>170968</v>
+        <v>438095</v>
       </c>
       <c r="J14">
         <f>SUM(B$2:B14)</f>
@@ -104750,7 +104747,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>702</v>
+        <v>125</v>
       </c>
       <c r="B15">
         <f>AVERAGE(MaxDeg!A14:AX14)</f>
@@ -104778,7 +104775,7 @@
       </c>
       <c r="I15">
         <f>SUM(A$2:A15)</f>
-        <v>171670</v>
+        <v>438220</v>
       </c>
       <c r="J15">
         <f>SUM(B$2:B15)</f>
@@ -104807,7 +104804,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>628</v>
+        <v>122</v>
       </c>
       <c r="B16">
         <f>AVERAGE(MaxDeg!A15:AX15)</f>
@@ -104835,7 +104832,7 @@
       </c>
       <c r="I16">
         <f>SUM(A$2:A16)</f>
-        <v>172298</v>
+        <v>438342</v>
       </c>
       <c r="J16">
         <f>SUM(B$2:B16)</f>
@@ -104864,7 +104861,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>607</v>
+        <v>112</v>
       </c>
       <c r="B17">
         <f>AVERAGE(MaxDeg!A16:AX16)</f>
@@ -104892,7 +104889,7 @@
       </c>
       <c r="I17">
         <f>SUM(A$2:A17)</f>
-        <v>172905</v>
+        <v>438454</v>
       </c>
       <c r="J17">
         <f>SUM(B$2:B17)</f>
@@ -104921,7 +104918,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>599</v>
+        <v>102</v>
       </c>
       <c r="B18">
         <f>AVERAGE(MaxDeg!A17:AX17)</f>
@@ -104949,7 +104946,7 @@
       </c>
       <c r="I18">
         <f>SUM(A$2:A18)</f>
-        <v>173504</v>
+        <v>438556</v>
       </c>
       <c r="J18">
         <f>SUM(B$2:B18)</f>
@@ -104978,7 +104975,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>599</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <f>AVERAGE(MaxDeg!A18:AX18)</f>
@@ -105006,7 +105003,7 @@
       </c>
       <c r="I19">
         <f>SUM(A$2:A19)</f>
-        <v>174103</v>
+        <v>438658</v>
       </c>
       <c r="J19">
         <f>SUM(B$2:B19)</f>
@@ -105035,7 +105032,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>599</v>
+        <v>101</v>
       </c>
       <c r="B20">
         <f>AVERAGE(MaxDeg!A19:AX19)</f>
@@ -105063,7 +105060,7 @@
       </c>
       <c r="I20">
         <f>SUM(A$2:A20)</f>
-        <v>174702</v>
+        <v>438759</v>
       </c>
       <c r="J20">
         <f>SUM(B$2:B20)</f>
@@ -105092,7 +105089,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>581</v>
+        <v>97</v>
       </c>
       <c r="B21">
         <f>AVERAGE(MaxDeg!A20:AX20)</f>
@@ -105120,7 +105117,7 @@
       </c>
       <c r="I21">
         <f>SUM(A$2:A21)</f>
-        <v>175283</v>
+        <v>438856</v>
       </c>
       <c r="J21">
         <f>SUM(B$2:B21)</f>
@@ -105149,7 +105146,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>567</v>
+        <v>96</v>
       </c>
       <c r="B22">
         <f>AVERAGE(MaxDeg!A21:AX21)</f>
@@ -105177,7 +105174,7 @@
       </c>
       <c r="I22">
         <f>SUM(A$2:A22)</f>
-        <v>175850</v>
+        <v>438952</v>
       </c>
       <c r="J22">
         <f>SUM(B$2:B22)</f>
@@ -105206,7 +105203,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>554</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <f>AVERAGE(MaxDeg!A22:AX22)</f>
@@ -105234,7 +105231,7 @@
       </c>
       <c r="I23">
         <f>SUM(A$2:A23)</f>
-        <v>176404</v>
+        <v>439045</v>
       </c>
       <c r="J23">
         <f>SUM(B$2:B23)</f>
@@ -105263,7 +105260,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>539</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <f>AVERAGE(MaxDeg!A23:AX23)</f>
@@ -105291,7 +105288,7 @@
       </c>
       <c r="I24">
         <f>SUM(A$2:A24)</f>
-        <v>176943</v>
+        <v>439135</v>
       </c>
       <c r="J24">
         <f>SUM(B$2:B24)</f>
@@ -105320,7 +105317,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>513</v>
+        <v>85</v>
       </c>
       <c r="B25">
         <f>AVERAGE(MaxDeg!A24:AX24)</f>
@@ -105348,7 +105345,7 @@
       </c>
       <c r="I25">
         <f>SUM(A$2:A25)</f>
-        <v>177456</v>
+        <v>439220</v>
       </c>
       <c r="J25">
         <f>SUM(B$2:B25)</f>
@@ -105377,7 +105374,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <f>AVERAGE(MaxDeg!A25:AX25)</f>
@@ -105405,7 +105402,7 @@
       </c>
       <c r="I26">
         <f>SUM(A$2:A26)</f>
-        <v>177961</v>
+        <v>439301</v>
       </c>
       <c r="J26">
         <f>SUM(B$2:B26)</f>
@@ -105434,7 +105431,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <f>AVERAGE(MaxDeg!A26:AX26)</f>
@@ -105462,7 +105459,7 @@
       </c>
       <c r="I27">
         <f>SUM(A$2:A27)</f>
-        <v>178436</v>
+        <v>439379</v>
       </c>
       <c r="J27">
         <f>SUM(B$2:B27)</f>
@@ -105491,7 +105488,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <f>AVERAGE(MaxDeg!A27:AX27)</f>
@@ -105519,7 +105516,7 @@
       </c>
       <c r="I28">
         <f>SUM(A$2:A28)</f>
-        <v>178907</v>
+        <v>439457</v>
       </c>
       <c r="J28">
         <f>SUM(B$2:B28)</f>
@@ -105548,7 +105545,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <f>AVERAGE(MaxDeg!A28:AX28)</f>
@@ -105576,7 +105573,7 @@
       </c>
       <c r="I29">
         <f>SUM(A$2:A29)</f>
-        <v>179373</v>
+        <v>439534</v>
       </c>
       <c r="J29">
         <f>SUM(B$2:B29)</f>
@@ -105605,7 +105602,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <f>AVERAGE(MaxDeg!A29:AX29)</f>
@@ -105633,7 +105630,7 @@
       </c>
       <c r="I30">
         <f>SUM(A$2:A30)</f>
-        <v>179828</v>
+        <v>439611</v>
       </c>
       <c r="J30">
         <f>SUM(B$2:B30)</f>
@@ -105662,7 +105659,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="B31">
         <f>AVERAGE(MaxDeg!A30:AX30)</f>
@@ -105690,7 +105687,7 @@
       </c>
       <c r="I31">
         <f>SUM(A$2:A31)</f>
-        <v>180278</v>
+        <v>439688</v>
       </c>
       <c r="J31">
         <f>SUM(B$2:B31)</f>
@@ -105719,7 +105716,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>448</v>
+        <v>75</v>
       </c>
       <c r="B32">
         <f>AVERAGE(MaxDeg!A31:AX31)</f>
@@ -105747,7 +105744,7 @@
       </c>
       <c r="I32">
         <f>SUM(A$2:A32)</f>
-        <v>180726</v>
+        <v>439763</v>
       </c>
       <c r="J32">
         <f>SUM(B$2:B32)</f>
@@ -105776,7 +105773,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>445</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <f>AVERAGE(MaxDeg!A32:AX32)</f>
@@ -105804,7 +105801,7 @@
       </c>
       <c r="I33">
         <f>SUM(A$2:A33)</f>
-        <v>181171</v>
+        <v>439836</v>
       </c>
       <c r="J33">
         <f>SUM(B$2:B33)</f>
@@ -105833,7 +105830,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <f>AVERAGE(MaxDeg!A33:AX33)</f>
@@ -105861,7 +105858,7 @@
       </c>
       <c r="I34">
         <f>SUM(A$2:A34)</f>
-        <v>181603</v>
+        <v>439908</v>
       </c>
       <c r="J34">
         <f>SUM(B$2:B34)</f>
@@ -105890,7 +105887,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>420</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <f>AVERAGE(MaxDeg!A34:AX34)</f>
@@ -105918,7 +105915,7 @@
       </c>
       <c r="I35">
         <f>SUM(A$2:A35)</f>
-        <v>182023</v>
+        <v>439980</v>
       </c>
       <c r="J35">
         <f>SUM(B$2:B35)</f>
@@ -105947,7 +105944,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>409</v>
+        <v>72</v>
       </c>
       <c r="B36">
         <f>AVERAGE(MaxDeg!A35:AX35)</f>
@@ -105975,7 +105972,7 @@
       </c>
       <c r="I36">
         <f>SUM(A$2:A36)</f>
-        <v>182432</v>
+        <v>440052</v>
       </c>
       <c r="J36">
         <f>SUM(B$2:B36)</f>
@@ -106004,7 +106001,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>400</v>
+        <v>71</v>
       </c>
       <c r="B37">
         <f>AVERAGE(MaxDeg!A36:AX36)</f>
@@ -106032,7 +106029,7 @@
       </c>
       <c r="I37">
         <f>SUM(A$2:A37)</f>
-        <v>182832</v>
+        <v>440123</v>
       </c>
       <c r="J37">
         <f>SUM(B$2:B37)</f>
@@ -106061,7 +106058,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <f>AVERAGE(MaxDeg!A37:AX37)</f>
@@ -106089,7 +106086,7 @@
       </c>
       <c r="I38">
         <f>SUM(A$2:A38)</f>
-        <v>183220</v>
+        <v>440194</v>
       </c>
       <c r="J38">
         <f>SUM(B$2:B38)</f>
@@ -106118,7 +106115,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>385</v>
+        <v>70</v>
       </c>
       <c r="B39">
         <f>AVERAGE(MaxDeg!A38:AX38)</f>
@@ -106146,7 +106143,7 @@
       </c>
       <c r="I39">
         <f>SUM(A$2:A39)</f>
-        <v>183605</v>
+        <v>440264</v>
       </c>
       <c r="J39">
         <f>SUM(B$2:B39)</f>
@@ -106175,7 +106172,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>385</v>
+        <v>69</v>
       </c>
       <c r="B40">
         <f>AVERAGE(MaxDeg!A39:AX39)</f>
@@ -106203,7 +106200,7 @@
       </c>
       <c r="I40">
         <f>SUM(A$2:A40)</f>
-        <v>183990</v>
+        <v>440333</v>
       </c>
       <c r="J40">
         <f>SUM(B$2:B40)</f>
@@ -106232,7 +106229,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>382</v>
+        <v>69</v>
       </c>
       <c r="B41">
         <f>AVERAGE(MaxDeg!A40:AX40)</f>
@@ -106260,7 +106257,7 @@
       </c>
       <c r="I41">
         <f>SUM(A$2:A41)</f>
-        <v>184372</v>
+        <v>440402</v>
       </c>
       <c r="J41">
         <f>SUM(B$2:B41)</f>
@@ -106289,7 +106286,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>376</v>
+        <v>68</v>
       </c>
       <c r="B42">
         <f>AVERAGE(MaxDeg!A41:AX41)</f>
@@ -106317,7 +106314,7 @@
       </c>
       <c r="I42">
         <f>SUM(A$2:A42)</f>
-        <v>184748</v>
+        <v>440470</v>
       </c>
       <c r="J42">
         <f>SUM(B$2:B42)</f>
@@ -106346,7 +106343,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>373</v>
+        <v>68</v>
       </c>
       <c r="B43">
         <f>AVERAGE(MaxDeg!A42:AX42)</f>
@@ -106374,7 +106371,7 @@
       </c>
       <c r="I43">
         <f>SUM(A$2:A43)</f>
-        <v>185121</v>
+        <v>440538</v>
       </c>
       <c r="J43">
         <f>SUM(B$2:B43)</f>
@@ -106403,7 +106400,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>369</v>
+        <v>68</v>
       </c>
       <c r="B44">
         <f>AVERAGE(MaxDeg!A43:AX43)</f>
@@ -106431,7 +106428,7 @@
       </c>
       <c r="I44">
         <f>SUM(A$2:A44)</f>
-        <v>185490</v>
+        <v>440606</v>
       </c>
       <c r="J44">
         <f>SUM(B$2:B44)</f>
@@ -106460,7 +106457,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>360</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <f>AVERAGE(MaxDeg!A44:AX44)</f>
@@ -106488,7 +106485,7 @@
       </c>
       <c r="I45">
         <f>SUM(A$2:A45)</f>
-        <v>185850</v>
+        <v>440673</v>
       </c>
       <c r="J45">
         <f>SUM(B$2:B45)</f>
@@ -106517,7 +106514,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <f>AVERAGE(MaxDeg!A45:AX45)</f>
@@ -106545,7 +106542,7 @@
       </c>
       <c r="I46">
         <f>SUM(A$2:A46)</f>
-        <v>186206</v>
+        <v>440740</v>
       </c>
       <c r="J46">
         <f>SUM(B$2:B46)</f>
@@ -106574,7 +106571,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>332</v>
+        <v>66</v>
       </c>
       <c r="B47">
         <f>AVERAGE(MaxDeg!A46:AX46)</f>
@@ -106602,7 +106599,7 @@
       </c>
       <c r="I47">
         <f>SUM(A$2:A47)</f>
-        <v>186538</v>
+        <v>440806</v>
       </c>
       <c r="J47">
         <f>SUM(B$2:B47)</f>
@@ -106631,7 +106628,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="B48">
         <f>AVERAGE(MaxDeg!A47:AX47)</f>
@@ -106659,7 +106656,7 @@
       </c>
       <c r="I48">
         <f>SUM(A$2:A48)</f>
-        <v>186831</v>
+        <v>440871</v>
       </c>
       <c r="J48">
         <f>SUM(B$2:B48)</f>
@@ -106688,7 +106685,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>292</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <f>AVERAGE(MaxDeg!A48:AX48)</f>
@@ -106716,7 +106713,7 @@
       </c>
       <c r="I49">
         <f>SUM(A$2:A49)</f>
-        <v>187123</v>
+        <v>440936</v>
       </c>
       <c r="J49">
         <f>SUM(B$2:B49)</f>
@@ -106745,7 +106742,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>290</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <f>AVERAGE(MaxDeg!A49:AX49)</f>
@@ -106773,7 +106770,7 @@
       </c>
       <c r="I50">
         <f>SUM(A$2:A50)</f>
-        <v>187413</v>
+        <v>441000</v>
       </c>
       <c r="J50">
         <f>SUM(B$2:B50)</f>
@@ -106802,7 +106799,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <f>AVERAGE(MaxDeg!A50:AX50)</f>
@@ -106830,7 +106827,7 @@
       </c>
       <c r="I51">
         <f>SUM(A$2:A51)</f>
-        <v>187691</v>
+        <v>441064</v>
       </c>
       <c r="J51">
         <f>SUM(B$2:B51)</f>
@@ -106859,7 +106856,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>269</v>
+        <v>63</v>
       </c>
       <c r="B52">
         <f>AVERAGE(MaxDeg!A51:AX51)</f>
@@ -106887,7 +106884,7 @@
       </c>
       <c r="I52">
         <f>SUM(A$2:A52)</f>
-        <v>187960</v>
+        <v>441127</v>
       </c>
       <c r="J52">
         <f>SUM(B$2:B52)</f>
@@ -106916,7 +106913,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <f>AVERAGE(MaxDeg!A52:AX52)</f>
@@ -106944,7 +106941,7 @@
       </c>
       <c r="I53">
         <f>SUM(A$2:A53)</f>
-        <v>188228</v>
+        <v>441190</v>
       </c>
       <c r="J53">
         <f>SUM(B$2:B53)</f>
@@ -106973,7 +106970,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <f>AVERAGE(MaxDeg!A53:AX53)</f>
@@ -107001,7 +106998,7 @@
       </c>
       <c r="I54">
         <f>SUM(A$2:A54)</f>
-        <v>188492</v>
+        <v>441249</v>
       </c>
       <c r="J54">
         <f>SUM(B$2:B54)</f>
@@ -107030,7 +107027,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <f>AVERAGE(MaxDeg!A54:AX54)</f>
@@ -107058,7 +107055,7 @@
       </c>
       <c r="I55">
         <f>SUM(A$2:A55)</f>
-        <v>188756</v>
+        <v>441308</v>
       </c>
       <c r="J55">
         <f>SUM(B$2:B55)</f>
@@ -107087,7 +107084,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>262</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <f>AVERAGE(MaxDeg!A55:AX55)</f>
@@ -107115,7 +107112,7 @@
       </c>
       <c r="I56">
         <f>SUM(A$2:A56)</f>
-        <v>189018</v>
+        <v>441367</v>
       </c>
       <c r="J56">
         <f>SUM(B$2:B56)</f>
@@ -107144,7 +107141,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <f>AVERAGE(MaxDeg!A56:AX56)</f>
@@ -107172,7 +107169,7 @@
       </c>
       <c r="I57">
         <f>SUM(A$2:A57)</f>
-        <v>189278</v>
+        <v>441426</v>
       </c>
       <c r="J57">
         <f>SUM(B$2:B57)</f>
@@ -107201,7 +107198,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <f>AVERAGE(MaxDeg!A57:AX57)</f>
@@ -107229,7 +107226,7 @@
       </c>
       <c r="I58">
         <f>SUM(A$2:A58)</f>
-        <v>189537</v>
+        <v>441485</v>
       </c>
       <c r="J58">
         <f>SUM(B$2:B58)</f>
@@ -107258,7 +107255,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <f>AVERAGE(MaxDeg!A58:AX58)</f>
@@ -107286,7 +107283,7 @@
       </c>
       <c r="I59">
         <f>SUM(A$2:A59)</f>
-        <v>189794</v>
+        <v>441543</v>
       </c>
       <c r="J59">
         <f>SUM(B$2:B59)</f>
@@ -107315,7 +107312,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <f>AVERAGE(MaxDeg!A59:AX59)</f>
@@ -107343,7 +107340,7 @@
       </c>
       <c r="I60">
         <f>SUM(A$2:A60)</f>
-        <v>190049</v>
+        <v>441601</v>
       </c>
       <c r="J60">
         <f>SUM(B$2:B60)</f>
@@ -107372,7 +107369,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c r="B61">
         <f>AVERAGE(MaxDeg!A60:AX60)</f>
@@ -107400,7 +107397,7 @@
       </c>
       <c r="I61">
         <f>SUM(A$2:A61)</f>
-        <v>190302</v>
+        <v>441657</v>
       </c>
       <c r="J61">
         <f>SUM(B$2:B61)</f>
@@ -107429,7 +107426,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>251</v>
+        <v>56</v>
       </c>
       <c r="B62">
         <f>AVERAGE(MaxDeg!A61:AX61)</f>
@@ -107457,7 +107454,7 @@
       </c>
       <c r="I62">
         <f>SUM(A$2:A62)</f>
-        <v>190553</v>
+        <v>441713</v>
       </c>
       <c r="J62">
         <f>SUM(B$2:B62)</f>
@@ -107486,7 +107483,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="B63">
         <f>AVERAGE(MaxDeg!A62:AX62)</f>
@@ -107514,7 +107511,7 @@
       </c>
       <c r="I63">
         <f>SUM(A$2:A63)</f>
-        <v>190803</v>
+        <v>441769</v>
       </c>
       <c r="J63">
         <f>SUM(B$2:B63)</f>
@@ -107543,7 +107540,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="B64">
         <f>AVERAGE(MaxDeg!A63:AX63)</f>
@@ -107571,7 +107568,7 @@
       </c>
       <c r="I64">
         <f>SUM(A$2:A64)</f>
-        <v>191051</v>
+        <v>441824</v>
       </c>
       <c r="J64">
         <f>SUM(B$2:B64)</f>
@@ -107600,7 +107597,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>241</v>
+        <v>55</v>
       </c>
       <c r="B65">
         <f>AVERAGE(MaxDeg!A64:AX64)</f>
@@ -107628,7 +107625,7 @@
       </c>
       <c r="I65">
         <f>SUM(A$2:A65)</f>
-        <v>191292</v>
+        <v>441879</v>
       </c>
       <c r="J65">
         <f>SUM(B$2:B65)</f>
@@ -107657,7 +107654,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>241</v>
+        <v>55</v>
       </c>
       <c r="B66">
         <f>AVERAGE(MaxDeg!A65:AX65)</f>
@@ -107685,7 +107682,7 @@
       </c>
       <c r="I66">
         <f>SUM(A$2:A66)</f>
-        <v>191533</v>
+        <v>441934</v>
       </c>
       <c r="J66">
         <f>SUM(B$2:B66)</f>
@@ -107714,7 +107711,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="B67">
         <f>AVERAGE(MaxDeg!A66:AX66)</f>
@@ -107742,7 +107739,7 @@
       </c>
       <c r="I67">
         <f>SUM(A$2:A67)</f>
-        <v>191765</v>
+        <v>441989</v>
       </c>
       <c r="J67">
         <f>SUM(B$2:B67)</f>
@@ -107771,7 +107768,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <f>AVERAGE(MaxDeg!A67:AX67)</f>
@@ -107799,7 +107796,7 @@
       </c>
       <c r="I68">
         <f>SUM(A$2:A68)</f>
-        <v>191997</v>
+        <v>442044</v>
       </c>
       <c r="J68">
         <f>SUM(B$2:B68)</f>
@@ -107828,7 +107825,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="B69">
         <f>AVERAGE(MaxDeg!A68:AX68)</f>
@@ -107856,7 +107853,7 @@
       </c>
       <c r="I69">
         <f>SUM(A$2:A69)</f>
-        <v>192227</v>
+        <v>442099</v>
       </c>
       <c r="J69">
         <f>SUM(B$2:B69)</f>
@@ -107885,7 +107882,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="B70">
         <f>AVERAGE(MaxDeg!A69:AX69)</f>
@@ -107913,7 +107910,7 @@
       </c>
       <c r="I70">
         <f>SUM(A$2:A70)</f>
-        <v>192457</v>
+        <v>442153</v>
       </c>
       <c r="J70">
         <f>SUM(B$2:B70)</f>
@@ -107942,7 +107939,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="B71">
         <f>AVERAGE(MaxDeg!A70:AX70)</f>
@@ -107970,7 +107967,7 @@
       </c>
       <c r="I71">
         <f>SUM(A$2:A71)</f>
-        <v>192683</v>
+        <v>442207</v>
       </c>
       <c r="J71">
         <f>SUM(B$2:B71)</f>
@@ -107999,7 +107996,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="B72">
         <f>AVERAGE(MaxDeg!A71:AX71)</f>
@@ -108027,7 +108024,7 @@
       </c>
       <c r="I72">
         <f>SUM(A$2:A72)</f>
-        <v>192908</v>
+        <v>442261</v>
       </c>
       <c r="J72">
         <f>SUM(B$2:B72)</f>
@@ -108056,7 +108053,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="B73">
         <f>AVERAGE(MaxDeg!A72:AX72)</f>
@@ -108084,7 +108081,7 @@
       </c>
       <c r="I73">
         <f>SUM(A$2:A73)</f>
-        <v>193132</v>
+        <v>442314</v>
       </c>
       <c r="J73">
         <f>SUM(B$2:B73)</f>
@@ -108113,7 +108110,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="B74">
         <f>AVERAGE(MaxDeg!A73:AX73)</f>
@@ -108141,7 +108138,7 @@
       </c>
       <c r="I74">
         <f>SUM(A$2:A74)</f>
-        <v>193355</v>
+        <v>442367</v>
       </c>
       <c r="J74">
         <f>SUM(B$2:B74)</f>
@@ -108170,7 +108167,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="B75">
         <f>AVERAGE(MaxDeg!A74:AX74)</f>
@@ -108198,7 +108195,7 @@
       </c>
       <c r="I75">
         <f>SUM(A$2:A75)</f>
-        <v>193571</v>
+        <v>442420</v>
       </c>
       <c r="J75">
         <f>SUM(B$2:B75)</f>
@@ -108227,7 +108224,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="B76">
         <f>AVERAGE(MaxDeg!A75:AX75)</f>
@@ -108255,7 +108252,7 @@
       </c>
       <c r="I76">
         <f>SUM(A$2:A76)</f>
-        <v>193786</v>
+        <v>442473</v>
       </c>
       <c r="J76">
         <f>SUM(B$2:B76)</f>
@@ -108284,7 +108281,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="B77">
         <f>AVERAGE(MaxDeg!A76:AX76)</f>
@@ -108312,7 +108309,7 @@
       </c>
       <c r="I77">
         <f>SUM(A$2:A77)</f>
-        <v>193992</v>
+        <v>442525</v>
       </c>
       <c r="J77">
         <f>SUM(B$2:B77)</f>
@@ -108341,7 +108338,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="B78">
         <f>AVERAGE(MaxDeg!A77:AX77)</f>
@@ -108369,7 +108366,7 @@
       </c>
       <c r="I78">
         <f>SUM(A$2:A78)</f>
-        <v>194198</v>
+        <v>442577</v>
       </c>
       <c r="J78">
         <f>SUM(B$2:B78)</f>
@@ -108398,7 +108395,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="B79">
         <f>AVERAGE(MaxDeg!A78:AX78)</f>
@@ -108426,7 +108423,7 @@
       </c>
       <c r="I79">
         <f>SUM(A$2:A79)</f>
-        <v>194403</v>
+        <v>442628</v>
       </c>
       <c r="J79">
         <f>SUM(B$2:B79)</f>
@@ -108455,7 +108452,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="B80">
         <f>AVERAGE(MaxDeg!A79:AX79)</f>
@@ -108483,7 +108480,7 @@
       </c>
       <c r="I80">
         <f>SUM(A$2:A80)</f>
-        <v>194608</v>
+        <v>442679</v>
       </c>
       <c r="J80">
         <f>SUM(B$2:B80)</f>
@@ -108512,7 +108509,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="B81">
         <f>AVERAGE(MaxDeg!A80:AX80)</f>
@@ -108540,7 +108537,7 @@
       </c>
       <c r="I81">
         <f>SUM(A$2:A81)</f>
-        <v>194812</v>
+        <v>442730</v>
       </c>
       <c r="J81">
         <f>SUM(B$2:B81)</f>
@@ -108569,7 +108566,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="B82">
         <f>AVERAGE(MaxDeg!A81:AX81)</f>
@@ -108597,7 +108594,7 @@
       </c>
       <c r="I82">
         <f>SUM(A$2:A82)</f>
-        <v>195015</v>
+        <v>442781</v>
       </c>
       <c r="J82">
         <f>SUM(B$2:B82)</f>
@@ -108626,7 +108623,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="B83">
         <f>AVERAGE(MaxDeg!A82:AX82)</f>
@@ -108654,7 +108651,7 @@
       </c>
       <c r="I83">
         <f>SUM(A$2:A83)</f>
-        <v>195216</v>
+        <v>442832</v>
       </c>
       <c r="J83">
         <f>SUM(B$2:B83)</f>
@@ -108683,7 +108680,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="B84">
         <f>AVERAGE(MaxDeg!A83:AX83)</f>
@@ -108711,7 +108708,7 @@
       </c>
       <c r="I84">
         <f>SUM(A$2:A84)</f>
-        <v>195413</v>
+        <v>442881</v>
       </c>
       <c r="J84">
         <f>SUM(B$2:B84)</f>
@@ -108740,7 +108737,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="B85">
         <f>AVERAGE(MaxDeg!A84:AX84)</f>
@@ -108768,7 +108765,7 @@
       </c>
       <c r="I85">
         <f>SUM(A$2:A85)</f>
-        <v>195610</v>
+        <v>442930</v>
       </c>
       <c r="J85">
         <f>SUM(B$2:B85)</f>
@@ -108797,7 +108794,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="B86">
         <f>AVERAGE(MaxDeg!A85:AX85)</f>
@@ -108825,7 +108822,7 @@
       </c>
       <c r="I86">
         <f>SUM(A$2:A86)</f>
-        <v>195805</v>
+        <v>442979</v>
       </c>
       <c r="J86">
         <f>SUM(B$2:B86)</f>
@@ -108854,7 +108851,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="B87">
         <f>AVERAGE(MaxDeg!A86:AX86)</f>
@@ -108882,7 +108879,7 @@
       </c>
       <c r="I87">
         <f>SUM(A$2:A87)</f>
-        <v>195994</v>
+        <v>443027</v>
       </c>
       <c r="J87">
         <f>SUM(B$2:B87)</f>
@@ -108911,7 +108908,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="B88">
         <f>AVERAGE(MaxDeg!A87:AX87)</f>
@@ -108939,7 +108936,7 @@
       </c>
       <c r="I88">
         <f>SUM(A$2:A88)</f>
-        <v>196182</v>
+        <v>443075</v>
       </c>
       <c r="J88">
         <f>SUM(B$2:B88)</f>
@@ -108968,7 +108965,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="B89">
         <f>AVERAGE(MaxDeg!A88:AX88)</f>
@@ -108996,7 +108993,7 @@
       </c>
       <c r="I89">
         <f>SUM(A$2:A89)</f>
-        <v>196367</v>
+        <v>443123</v>
       </c>
       <c r="J89">
         <f>SUM(B$2:B89)</f>
@@ -109025,7 +109022,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="B90">
         <f>AVERAGE(MaxDeg!A89:AX89)</f>
@@ -109053,7 +109050,7 @@
       </c>
       <c r="I90">
         <f>SUM(A$2:A90)</f>
-        <v>196549</v>
+        <v>443171</v>
       </c>
       <c r="J90">
         <f>SUM(B$2:B90)</f>
@@ -109082,7 +109079,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="B91">
         <f>AVERAGE(MaxDeg!A90:AX90)</f>
@@ -109110,7 +109107,7 @@
       </c>
       <c r="I91">
         <f>SUM(A$2:A91)</f>
-        <v>196731</v>
+        <v>443218</v>
       </c>
       <c r="J91">
         <f>SUM(B$2:B91)</f>
@@ -109139,7 +109136,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="B92">
         <f>AVERAGE(MaxDeg!A91:AX91)</f>
@@ -109167,7 +109164,7 @@
       </c>
       <c r="I92">
         <f>SUM(A$2:A92)</f>
-        <v>196912</v>
+        <v>443265</v>
       </c>
       <c r="J92">
         <f>SUM(B$2:B92)</f>
@@ -109196,7 +109193,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="B93">
         <f>AVERAGE(MaxDeg!A92:AX92)</f>
@@ -109224,7 +109221,7 @@
       </c>
       <c r="I93">
         <f>SUM(A$2:A93)</f>
-        <v>197090</v>
+        <v>443312</v>
       </c>
       <c r="J93">
         <f>SUM(B$2:B93)</f>
@@ -109253,7 +109250,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B94">
         <f>AVERAGE(MaxDeg!A93:AX93)</f>
@@ -109281,7 +109278,7 @@
       </c>
       <c r="I94">
         <f>SUM(A$2:A94)</f>
-        <v>197266</v>
+        <v>443358</v>
       </c>
       <c r="J94">
         <f>SUM(B$2:B94)</f>
@@ -109310,7 +109307,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="B95">
         <f>AVERAGE(MaxDeg!A94:AX94)</f>
@@ -109338,7 +109335,7 @@
       </c>
       <c r="I95">
         <f>SUM(A$2:A95)</f>
-        <v>197441</v>
+        <v>443403</v>
       </c>
       <c r="J95">
         <f>SUM(B$2:B95)</f>
@@ -109367,7 +109364,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="B96">
         <f>AVERAGE(MaxDeg!A95:AX95)</f>
@@ -109395,7 +109392,7 @@
       </c>
       <c r="I96">
         <f>SUM(A$2:A96)</f>
-        <v>197615</v>
+        <v>443448</v>
       </c>
       <c r="J96">
         <f>SUM(B$2:B96)</f>
@@ -109424,7 +109421,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="B97">
         <f>AVERAGE(MaxDeg!A96:AX96)</f>
@@ -109452,7 +109449,7 @@
       </c>
       <c r="I97">
         <f>SUM(A$2:A97)</f>
-        <v>197787</v>
+        <v>443493</v>
       </c>
       <c r="J97">
         <f>SUM(B$2:B97)</f>
@@ -109481,7 +109478,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="B98">
         <f>AVERAGE(MaxDeg!A97:AX97)</f>
@@ -109509,7 +109506,7 @@
       </c>
       <c r="I98">
         <f>SUM(A$2:A98)</f>
-        <v>197959</v>
+        <v>443538</v>
       </c>
       <c r="J98">
         <f>SUM(B$2:B98)</f>
@@ -109538,7 +109535,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="B99">
         <f>AVERAGE(MaxDeg!A98:AX98)</f>
@@ -109566,7 +109563,7 @@
       </c>
       <c r="I99">
         <f>SUM(A$2:A99)</f>
-        <v>198123</v>
+        <v>443583</v>
       </c>
       <c r="J99">
         <f>SUM(B$2:B99)</f>
@@ -109595,7 +109592,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="B100">
         <f>AVERAGE(MaxDeg!A99:AX99)</f>
@@ -109623,7 +109620,7 @@
       </c>
       <c r="I100">
         <f>SUM(A$2:A100)</f>
-        <v>198284</v>
+        <v>443628</v>
       </c>
       <c r="J100">
         <f>SUM(B$2:B100)</f>
@@ -109652,7 +109649,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="B101">
         <f>AVERAGE(MaxDeg!A100:AX100)</f>
@@ -109680,7 +109677,7 @@
       </c>
       <c r="I101">
         <f>SUM(A$2:A101)</f>
-        <v>198445</v>
+        <v>443673</v>
       </c>
       <c r="J101">
         <f>SUM(B$2:B101)</f>
